--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T19:49:37+00:00</t>
+    <t>2022-02-03T09:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:57:16+00:00</t>
+    <t>2022-07-25T16:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from task-status" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Task Status" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T16:53:30+00:00</t>
+    <t>2023-02-20T00:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,15 +90,9 @@
     <t>ready</t>
   </si>
   <si>
-    <t>The task is ready to be performed, but no action has yet been taken</t>
-  </si>
-  <si>
     <t>in-progress</t>
   </si>
   <si>
-    <t>The task has been started but is not yet complete.</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -111,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status</t>
+    <t>https://i-tech-uw.github.io/openelis-global2-fhir-ig/codesystem-task-status</t>
   </si>
 </sst>
 </file>
@@ -388,40 +382,36 @@
       <c r="A2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T00:55:10+00:00</t>
+    <t>2023-02-20T01:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:40:12+00:00</t>
+    <t>2023-02-20T01:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:58:23+00:00</t>
+    <t>2023-02-20T02:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T02:21:28+00:00</t>
+    <t>2023-02-20T12:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T12:30:13+00:00</t>
+    <t>2023-03-03T05:49:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenELISTaskStatusVS.xlsx
+++ b/ValueSet-OpenELISTaskStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
